--- a/Documentacion/Negocios/Remuneraciones.xlsx
+++ b/Documentacion/Negocios/Remuneraciones.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilianoAgustin\Documents\juego-sap-tfi\Documentacion\Negocios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="5" r:id="rId1"/>
@@ -24,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ingresos!$A$1:$K$70</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>Periodo</t>
   </si>
@@ -364,22 +359,22 @@
     <t>Año 2</t>
   </si>
   <si>
-    <t>Remuneración</t>
-  </si>
-  <si>
-    <t>Cargas Sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (11% Jubilación y 3% Obra Social)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Cargas Sociales (11% Jubilación y 3% Obra Social)</t>
+  </si>
+  <si>
+    <t>Remuneración Neta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -419,11 +414,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,14 +696,44 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +752,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,26 +827,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,23 +862,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,7 +1044,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -847,7 +1101,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -934,11 +1188,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1426,279 +1680,395 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="17" width="8.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="16" width="8.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="B10" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="27">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E10" s="33">
+        <f>+D10+C10</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E11" s="34">
+        <f>+D11+C11</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E12" s="34">
+        <f>+D12+C12</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E13" s="34">
+        <f>+D13+C13</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E14" s="34">
+        <f>+D14+C14</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E15" s="34">
+        <f>+D15+C15</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E16" s="34">
+        <f>+D16+C16</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E17" s="34">
+        <f>+D17+C17</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D18" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E18" s="34">
+        <f>+D18+C18</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E19" s="34">
+        <f>+D19+C19</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E20" s="34">
+        <f>+D20+C20</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="28">
+        <v>33354.239999999998</v>
+      </c>
+      <c r="D21" s="18">
+        <v>4669.5940000000001</v>
+      </c>
+      <c r="E21" s="34">
+        <f>+D21+C21</f>
+        <v>38023.833999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C22" s="29">
+        <v>11104.766</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1554.6669999999999</v>
+      </c>
+      <c r="E22" s="35">
+        <f>+D22+C22</f>
+        <v>12659.432999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C23" s="29">
+        <v>11104.766</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1554.6669999999999</v>
+      </c>
+      <c r="E23" s="35">
+        <f>+D23+C23</f>
+        <v>12659.432999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C24" s="29">
+        <v>11104.766</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1554.6669999999999</v>
+      </c>
+      <c r="E24" s="35">
+        <f>+D24+C24</f>
+        <v>12659.432999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="C3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="D3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="E3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="F3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="G3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="H3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="I3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="J3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="K3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="L3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="M3" s="16">
-        <v>33354.239999999998</v>
-      </c>
-      <c r="N3" s="17">
+      <c r="C25" s="36">
         <v>11104.766</v>
       </c>
-      <c r="O3" s="17">
-        <v>11104.766</v>
-      </c>
-      <c r="P3" s="17">
-        <v>11104.766</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>11104.766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="C4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="D4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="E4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="F4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="G4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="H4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="I4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="J4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="K4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="L4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="M4" s="16">
-        <v>4669.5940000000001</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="D25" s="37">
         <v>1554.6669999999999</v>
       </c>
-      <c r="O4" s="17">
-        <v>1554.6669999999999</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1554.6669999999999</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>1554.6669999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="2">
-        <f>+B4+B3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="C6" s="2">
-        <f>+C4+C3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="D6" s="2">
-        <f>+D4+D3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="E6" s="2">
-        <f>+E4+E3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="F6" s="2">
-        <f>+F4+F3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="G6" s="2">
-        <f>+G4+G3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="H6" s="2">
-        <f>+H4+H3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="I6" s="2">
-        <f>+I4+I3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="J6" s="2">
-        <f>+J4+J3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="K6" s="2">
-        <f>+K4+K3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="L6" s="2">
-        <f>+L4+L3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="M6" s="2">
-        <f>+M4+M3</f>
-        <v>38023.833999999995</v>
-      </c>
-      <c r="N6" s="13">
-        <f>+N4+N3</f>
+      <c r="E25" s="38">
+        <f>+D25+C25</f>
         <v>12659.432999999999</v>
       </c>
-      <c r="O6" s="13">
-        <f>+O4+O3</f>
-        <v>12659.432999999999</v>
-      </c>
-      <c r="P6" s="13">
-        <f>+P4+P3</f>
-        <v>12659.432999999999</v>
-      </c>
-      <c r="Q6" s="13">
-        <f>+Q4+Q3</f>
-        <v>12659.432999999999</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:Q1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1713,7 +2083,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -1813,7 +2183,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="6" width="13.28515625" customWidth="1"/>
@@ -2171,7 +2541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -2349,11 +2719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4"/>
